--- a/parameter_files/test/lambdas.xlsx
+++ b/parameter_files/test/lambdas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/v4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4efc3e9dc81381f4/Documents/SJV-gen-modeling/parameter_files/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31A49EBB-5CCF-4CF5-A02F-81A46B1C183B}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{DE7AA214-7A52-45FD-B34D-95B35E7A1CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{621E9886-7164-44B2-8865-0A63E1C40FA0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5AFC58BC-5DA4-4BEE-A195-DB852AED1E19}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5AFC58BC-5DA4-4BEE-A195-DB852AED1E19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -720,7 +720,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -731,10 +731,10 @@
   <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
+      <selection pane="bottomRight" activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1058,11 +1058,35 @@
       <c r="A26" s="21" t="s">
         <v>32</v>
       </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="22" t="s">
         <v>35</v>
       </c>
+      <c r="C27">
+        <v>0.5</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
@@ -1087,6 +1111,18 @@
     <row r="32" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="C32">
+        <v>0.5</v>
+      </c>
+      <c r="D32">
+        <v>0.5</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
